--- a/biology/Botanique/Simira/Simira.xlsx
+++ b/biology/Botanique/Simira/Simira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simira est un genre de plantes à fleurs néotropicale, appartenant à la famille des Rubiaceae, comptant 46 à 57 espèces, et dont l'espèce type est Simira tinctoria Aubl.. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Simira regroupe des arbustes ou arbres, terrestres, non armés, dont les tissus internes deviennent souvent rouges ou pourpres à l'air. 
 Les feuilles sont opposées, pétiolées à subsessiles, à nervation non linéolée ; stipules interpétiolaires, persistantes ou caduques, triangulaires, dressées, tordues dans le bourgeon. 
@@ -522,7 +536,7 @@
 Les anthères sont étroitement oblongues, dorsifixées près du milieu, exsertes. 
 L'ovaire est à 2 loges, contenant de nombreux ovules, sur des placentas axiles. 
 Le fruit est une capsule, ellipsoïde à globuleuse, à déhiscence loculicide à partir de l'apex, ligneux. 
-Les graines sont grandes, lunulées à oblongues, aplaties, charbonneuses à papilleuses, ailées[3].
+Les graines sont grandes, lunulées à oblongues, aplaties, charbonneuses à papilleuses, ailées.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simira est un genre néotropical représenté du sud du Mexique, au Brésil en passant par l'Amérique centrale, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simira est un genre néotropical représenté du sud du Mexique, au Brésil en passant par l'Amérique centrale, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (25 mai 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (25 mai 2024) :
 Sickingia paraeuris &amp;F5&amp;
 Sickingia pisoniiformis &amp;F5&amp;
 Simira alba &amp;F5&amp;
@@ -631,7 +649,7 @@
 Simira walteri &amp;F5&amp;
 Simira williamsii &amp;F5&amp;
 Simira wurdackii &amp;F5&amp;
-Selon Tropicos                                           (25 mai 2024)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 mai 2024) (Attention liste brute contenant possiblement des synonymes) :
 Simira alba (Mart.) Delprete, Margalho &amp; Groppo 2020
 Simira aristeguietae (Steyerm.) Steyerm. 1972
 Simira calderoniana (Standl.) Steyerm. 1972
@@ -717,9 +735,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « SIMIRA. (Tabula 65.) 
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum.
 COR. monopetala, tubuloſa, diſco ſupra ovarium inſerta, limbus quinquefidus, lobis ſubrotundis.
